--- a/doc/设计.xlsx
+++ b/doc/设计.xlsx
@@ -4,21 +4,55 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="イメージ" sheetId="1" r:id="rId1"/>
+    <sheet name="TODO" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$N$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">TODO!$A$1:$AM$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">イメージ!$A$1:$N$32</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>TODO:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化事件实现方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>on绑定事件和类本身定义的事件函数的触发方式不一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件对象有层级关系时事件向子级或父级分发事件的实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="\(0\)"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -32,6 +66,25 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -54,8 +107,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -76,14 +136,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>314739</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>132522</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>182217</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>331303</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>91109</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>140804</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -92,8 +152,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="314739" y="306457"/>
-          <a:ext cx="3453847" cy="5176630"/>
+          <a:off x="314739" y="182217"/>
+          <a:ext cx="3453847" cy="5731565"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -130,13 +190,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>538370</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>149087</xdr:rowOff>
+      <xdr:rowOff>8282</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>124239</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>74544</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>124239</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -145,8 +205,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="538370" y="844826"/>
-          <a:ext cx="3023152" cy="4447761"/>
+          <a:off x="538370" y="770282"/>
+          <a:ext cx="3023152" cy="4936435"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -205,14 +265,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>397566</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>57977</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>165650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>604632</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>140805</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -221,8 +281,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1085023" y="1623390"/>
-          <a:ext cx="894522" cy="952502"/>
+          <a:off x="1085023" y="1689650"/>
+          <a:ext cx="894522" cy="1035328"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -270,14 +330,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>190501</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>74543</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>124238</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>463826</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>16565</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>66260</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -286,8 +346,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1565414" y="422413"/>
-          <a:ext cx="960782" cy="637761"/>
+          <a:off x="1565414" y="314738"/>
+          <a:ext cx="960782" cy="704022"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst/>
@@ -616,20 +676,84 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <tabColor theme="4"/>
+  </sheetPr>
+  <dimension ref="I9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="15" max="25" width="8.25" customWidth="1"/>
+    <col min="1" max="14" width="9" style="2"/>
+    <col min="15" max="25" width="8.25" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9" style="2"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="9" spans="9:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="I9" s="1"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="9" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="B2:AM5"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="AA21" sqref="AA21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="3.375" style="4" customWidth="1"/>
+    <col min="3" max="39" width="3.375" style="5" customWidth="1"/>
+    <col min="40" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
 </file>